--- a/Sample_LightIntensity/2017-08-30.xlsx
+++ b/Sample_LightIntensity/2017-08-30.xlsx
@@ -63,1540 +63,1540 @@
   <sheetData>
     <row r="2">
       <c r="A2" t="n">
-        <v>6850.127138737391</v>
+        <v>6988.437598038037</v>
       </c>
       <c r="B2" t="n">
-        <v>6964.701628034655</v>
+        <v>7106.60784736635</v>
       </c>
       <c r="C2" t="n">
-        <v>7073.50576815564</v>
+        <v>7218.390515649888</v>
       </c>
       <c r="D2" t="n">
-        <v>7165.161405795002</v>
+        <v>7313.283874905484</v>
       </c>
       <c r="E2" t="n">
-        <v>7279.689767443731</v>
+        <v>7430.751226732306</v>
       </c>
       <c r="F2" t="n">
-        <v>7345.5424771144035</v>
+        <v>7499.573678346765</v>
       </c>
       <c r="G2" t="n">
-        <v>7422.0287080497765</v>
+        <v>7578.159815567832</v>
       </c>
       <c r="H2" t="n">
-        <v>7489.155419441896</v>
+        <v>7648.291413778818</v>
       </c>
       <c r="I2" t="n">
-        <v>7603.391639316568</v>
+        <v>7765.374368534521</v>
       </c>
       <c r="J2" t="n">
-        <v>7708.679095375422</v>
+        <v>7874.12579134289</v>
       </c>
       <c r="K2" t="n">
-        <v>7837.6915386641895</v>
+        <v>8006.22439397413</v>
       </c>
       <c r="L2" t="n">
-        <v>7940.701167507282</v>
+        <v>8113.1065487394835</v>
       </c>
       <c r="M2" t="n">
-        <v>8102.022733762892</v>
+        <v>8278.2039925109</v>
       </c>
       <c r="N2" t="n">
-        <v>8309.502700319355</v>
+        <v>8492.851317027847</v>
       </c>
       <c r="O2" t="n">
-        <v>8676.727106862467</v>
+        <v>8866.939956983922</v>
       </c>
       <c r="P2" t="n">
-        <v>9016.45504176923</v>
+        <v>9216.728112380746</v>
       </c>
       <c r="Q2" t="n">
-        <v>9347.833872291134</v>
+        <v>9557.275362187687</v>
       </c>
       <c r="R2" t="n">
-        <v>9528.436795634441</v>
+        <v>9746.99179094873</v>
       </c>
       <c r="S2" t="n">
-        <v>9723.515014399025</v>
+        <v>9949.36696440063</v>
       </c>
       <c r="T2" t="n">
-        <v>9868.448086096501</v>
+        <v>10099.964950649162</v>
       </c>
       <c r="U2" t="n">
-        <v>10050.303045614333</v>
+        <v>10286.759961669643</v>
       </c>
       <c r="V2" t="n">
-        <v>10191.093415162413</v>
+        <v>10432.701251970815</v>
       </c>
       <c r="W2" t="n">
-        <v>10342.18782277137</v>
+        <v>10587.422171376515</v>
       </c>
       <c r="X2" t="n">
-        <v>10405.69680858552</v>
+        <v>10654.575241424942</v>
       </c>
       <c r="Y2" t="n">
-        <v>10480.704758213078</v>
+        <v>10730.986789500785</v>
       </c>
       <c r="Z2" t="n">
-        <v>10535.858049978282</v>
+        <v>10788.628777732194</v>
       </c>
       <c r="AA2" t="n">
-        <v>10661.709651065044</v>
+        <v>10916.694505948644</v>
       </c>
       <c r="AB2" t="n">
-        <v>10774.377530889522</v>
+        <v>11032.63964537381</v>
       </c>
       <c r="AC2" t="n">
-        <v>10903.554715780205</v>
+        <v>11165.162183060636</v>
       </c>
       <c r="AD2" t="n">
-        <v>10969.345921919497</v>
+        <v>11233.127978345161</v>
       </c>
       <c r="AE2" t="n">
-        <v>11043.257790755664</v>
+        <v>11308.021707128724</v>
       </c>
       <c r="AF2" t="n">
-        <v>11100.557116455102</v>
+        <v>11366.581855221455</v>
       </c>
       <c r="AG2" t="n">
-        <v>11222.134222110944</v>
+        <v>11490.687195327957</v>
       </c>
       <c r="AH2" t="n">
-        <v>11324.102684029958</v>
+        <v>11596.400782997092</v>
       </c>
       <c r="AI2" t="n">
-        <v>11432.733296330263</v>
+        <v>11707.542057310522</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11432.43456489213</v>
+        <v>11708.266920358932</v>
       </c>
       <c r="AK2" t="n">
-        <v>11452.14864325418</v>
+        <v>11728.207243854275</v>
       </c>
       <c r="AL2" t="n">
-        <v>11445.012037059385</v>
+        <v>11722.105214919482</v>
       </c>
       <c r="AM2" t="n">
-        <v>11530.68645627202</v>
+        <v>11809.352367291693</v>
       </c>
       <c r="AN2" t="n">
-        <v>11589.00278679392</v>
+        <v>11870.166180498572</v>
       </c>
       <c r="AO2" t="n">
-        <v>11643.839774683458</v>
+        <v>11926.323297758092</v>
       </c>
       <c r="AP2" t="n">
-        <v>11607.704253442891</v>
+        <v>11890.301997361521</v>
       </c>
       <c r="AQ2" t="n">
-        <v>11556.92430206976</v>
+        <v>11838.562151587912</v>
       </c>
       <c r="AR2" t="n">
-        <v>11500.051107980596</v>
+        <v>11781.03658075518</v>
       </c>
       <c r="AS2" t="n">
-        <v>11506.038916071402</v>
+        <v>11788.507063263185</v>
       </c>
       <c r="AT2" t="n">
-        <v>11508.437553795227</v>
+        <v>11792.460861709056</v>
       </c>
       <c r="AU2" t="n">
-        <v>11502.104886617759</v>
+        <v>11786.352243110186</v>
       </c>
       <c r="AV2" t="n">
-        <v>11426.387449824639</v>
+        <v>11710.274571347554</v>
       </c>
       <c r="AW2" t="n">
-        <v>11360.47543317728</v>
+        <v>11643.297225674503</v>
       </c>
       <c r="AX2" t="n">
-        <v>11286.115467183909</v>
+        <v>11568.98558388436</v>
       </c>
       <c r="AY2" t="n">
-        <v>11278.838281488812</v>
+        <v>11562.5101406519</v>
       </c>
       <c r="AZ2" t="n">
-        <v>11256.760710278004</v>
+        <v>11540.15360699519</v>
       </c>
       <c r="BA2" t="n">
-        <v>11228.807355265695</v>
+        <v>11511.868572224363</v>
       </c>
       <c r="BB2" t="n">
-        <v>11122.015259242724</v>
+        <v>11404.017736839776</v>
       </c>
       <c r="BC2" t="n">
-        <v>11013.549388544336</v>
+        <v>11294.539254428304</v>
       </c>
       <c r="BD2" t="n">
-        <v>10908.545288040777</v>
+        <v>11187.966813874553</v>
       </c>
       <c r="BE2" t="n">
-        <v>10882.603977126477</v>
+        <v>11160.964567043948</v>
       </c>
       <c r="BF2" t="n">
-        <v>10861.167799885776</v>
+        <v>11140.051169819979</v>
       </c>
       <c r="BG2" t="n">
-        <v>10852.840661047832</v>
+        <v>11131.814089724416</v>
       </c>
       <c r="BH2" t="n">
-        <v>10770.006387052143</v>
+        <v>11047.756334765194</v>
       </c>
       <c r="BI2" t="n">
-        <v>10674.245388693153</v>
+        <v>10949.40999153354</v>
       </c>
       <c r="BJ2" t="n">
-        <v>10544.450971933982</v>
+        <v>10817.926424216103</v>
       </c>
       <c r="BK2" t="n">
-        <v>10447.809155143434</v>
+        <v>10719.485629132685</v>
       </c>
       <c r="BL2" t="n">
-        <v>10329.627923041651</v>
+        <v>10599.755825972943</v>
       </c>
       <c r="BM2" t="n">
-        <v>10190.873759693195</v>
+        <v>10458.260362368681</v>
       </c>
       <c r="BN2" t="n">
-        <v>9992.182208460026</v>
+        <v>10256.375020613128</v>
       </c>
       <c r="BO2" t="n">
-        <v>9782.380483593968</v>
+        <v>10042.04399997185</v>
       </c>
       <c r="BP2" t="n">
-        <v>9587.548278954906</v>
+        <v>9842.190471306532</v>
       </c>
       <c r="BQ2" t="n">
-        <v>9472.42025787522</v>
+        <v>9723.251427835963</v>
       </c>
       <c r="BR2" t="n">
-        <v>9382.080356496444</v>
+        <v>9630.908268577956</v>
       </c>
       <c r="BS2" t="n">
-        <v>9313.128308155146</v>
+        <v>9560.526263132071</v>
       </c>
       <c r="BT2" t="n">
-        <v>9208.783174059236</v>
+        <v>9454.24816090706</v>
       </c>
       <c r="BU2" t="n">
-        <v>9123.22956535467</v>
+        <v>9366.599039026178</v>
       </c>
       <c r="BV2" t="n">
-        <v>9045.809798675133</v>
+        <v>9287.909663734576</v>
       </c>
       <c r="BW2" t="n">
-        <v>9011.295334797369</v>
+        <v>9252.393570917191</v>
       </c>
       <c r="BX2" t="n">
-        <v>8971.225784103153</v>
+        <v>9210.804004376012</v>
       </c>
       <c r="BY2" t="n">
-        <v>8926.356761406592</v>
+        <v>9164.799362903612</v>
       </c>
       <c r="BZ2" t="n">
-        <v>8837.574217304564</v>
+        <v>9074.158533532025</v>
       </c>
       <c r="CA2" t="n">
-        <v>8771.82694225912</v>
+        <v>9006.241062450732</v>
       </c>
       <c r="CB2" t="n">
-        <v>8737.690285788414</v>
+        <v>8971.594805291445</v>
       </c>
       <c r="CC2" t="n">
-        <v>8779.850956549548</v>
+        <v>9014.557218515218</v>
       </c>
       <c r="CD2" t="n">
-        <v>8835.151417479121</v>
+        <v>9072.43423809869</v>
       </c>
       <c r="CE2" t="n">
-        <v>8894.067407431978</v>
+        <v>9131.666531927216</v>
       </c>
       <c r="CF2" t="n">
-        <v>8898.051957643538</v>
+        <v>9136.419876281032</v>
       </c>
       <c r="CG2" t="n">
-        <v>8904.235259101943</v>
+        <v>9142.493350004828</v>
       </c>
       <c r="CH2" t="n">
-        <v>8914.943463226178</v>
+        <v>9153.495892457808</v>
       </c>
       <c r="CI2" t="n">
-        <v>8986.639008377977</v>
+        <v>9226.287518400983</v>
       </c>
       <c r="CJ2" t="n">
-        <v>9070.446356102293</v>
+        <v>9312.35731745821</v>
       </c>
       <c r="CK2" t="n">
-        <v>9186.525485363674</v>
+        <v>9431.860875484663</v>
       </c>
       <c r="CL2" t="n">
-        <v>9281.873531440537</v>
+        <v>9530.024904676868</v>
       </c>
       <c r="CM2" t="n">
-        <v>9423.417319248025</v>
+        <v>9675.575208242835</v>
       </c>
       <c r="CN2" t="n">
-        <v>9603.03179297987</v>
+        <v>9859.87273657834</v>
       </c>
       <c r="CO2" t="n">
-        <v>9881.860249046767</v>
+        <v>10146.27271666908</v>
       </c>
       <c r="CP2" t="n">
-        <v>10173.176118538539</v>
+        <v>10445.441269185292</v>
       </c>
       <c r="CQ2" t="n">
-        <v>10473.144216962692</v>
+        <v>10753.174188446195</v>
       </c>
       <c r="CR2" t="n">
-        <v>10702.714934058115</v>
+        <v>10987.779408896027</v>
       </c>
       <c r="CS2" t="n">
-        <v>10928.913939701075</v>
+        <v>11218.905286713483</v>
       </c>
       <c r="CT2" t="n">
-        <v>11143.80727834355</v>
+        <v>11439.358105281788</v>
       </c>
       <c r="CU2" t="n">
-        <v>11414.172409181585</v>
+        <v>11716.13497926621</v>
       </c>
       <c r="CV2" t="n">
-        <v>11668.381880258865</v>
+        <v>11976.725441724178</v>
       </c>
       <c r="CW2" t="n">
-        <v>11914.712309655386</v>
+        <v>12228.441823225863</v>
       </c>
       <c r="CX2" t="n">
-        <v>12086.963932059143</v>
+        <v>12405.312800147212</v>
       </c>
       <c r="CY2" t="n">
-        <v>12256.551133621315</v>
+        <v>12578.052057692621</v>
       </c>
       <c r="CZ2" t="n">
-        <v>12419.935264732858</v>
+        <v>12745.216459429355</v>
       </c>
       <c r="DA2" t="n">
-        <v>12642.12336150796</v>
+        <v>12972.381949136858</v>
       </c>
       <c r="DB2" t="n">
-        <v>12857.093579564653</v>
+        <v>13191.870480195315</v>
       </c>
       <c r="DC2" t="n">
-        <v>13056.749418307672</v>
+        <v>13396.005093955624</v>
       </c>
       <c r="DD2" t="n">
-        <v>13162.647516570943</v>
+        <v>13503.963560520138</v>
       </c>
       <c r="DE2" t="n">
-        <v>13268.174397091241</v>
+        <v>13612.28885171823</v>
       </c>
       <c r="DF2" t="n">
-        <v>13351.06138839954</v>
+        <v>13696.812276272185</v>
       </c>
       <c r="DG2" t="n">
-        <v>13512.341220115997</v>
+        <v>13861.582433394464</v>
       </c>
       <c r="DH2" t="n">
-        <v>13650.214565032898</v>
+        <v>14002.429913364538</v>
       </c>
       <c r="DI2" t="n">
-        <v>13805.348436720722</v>
+        <v>14160.986017262732</v>
       </c>
       <c r="DJ2" t="n">
-        <v>13875.824894018371</v>
+        <v>14232.822141914827</v>
       </c>
       <c r="DK2" t="n">
-        <v>13951.748806952557</v>
+        <v>14310.580178016964</v>
       </c>
       <c r="DL2" t="n">
-        <v>14009.092063745838</v>
+        <v>14369.950854791095</v>
       </c>
       <c r="DM2" t="n">
-        <v>14148.79294216661</v>
+        <v>14513.583566110821</v>
       </c>
       <c r="DN2" t="n">
-        <v>14281.702073479255</v>
+        <v>14649.539318781477</v>
       </c>
       <c r="DO2" t="n">
-        <v>14422.329897980118</v>
+        <v>14792.299997888413</v>
       </c>
       <c r="DP2" t="n">
-        <v>14473.599681049607</v>
+        <v>14844.454992498837</v>
       </c>
       <c r="DQ2" t="n">
-        <v>14538.158620006601</v>
+        <v>14910.762388990775</v>
       </c>
       <c r="DR2" t="n">
-        <v>14601.904833727496</v>
+        <v>14977.15325456103</v>
       </c>
       <c r="DS2" t="n">
-        <v>14743.02907958878</v>
+        <v>15121.383428757015</v>
       </c>
       <c r="DT2" t="n">
-        <v>14883.026492892992</v>
+        <v>15264.425266864555</v>
       </c>
       <c r="DU2" t="n">
-        <v>15020.328733589937</v>
+        <v>15405.004767162192</v>
       </c>
       <c r="DV2" t="n">
-        <v>15071.47111648728</v>
+        <v>15458.286594329686</v>
       </c>
       <c r="DW2" t="n">
-        <v>15117.899693015266</v>
+        <v>15506.353800658018</v>
       </c>
       <c r="DX2" t="n">
-        <v>15153.244454566668</v>
+        <v>15543.438233525594</v>
       </c>
       <c r="DY2" t="n">
-        <v>15271.746383653497</v>
+        <v>15664.332210672175</v>
       </c>
       <c r="DZ2" t="n">
-        <v>15381.345676573043</v>
+        <v>15776.264244674772</v>
       </c>
       <c r="EA2" t="n">
-        <v>15493.348000325794</v>
+        <v>15891.01006523802</v>
       </c>
       <c r="EB2" t="n">
-        <v>15517.035646125945</v>
+        <v>15916.182582010058</v>
       </c>
       <c r="EC2" t="n">
-        <v>15532.409332416302</v>
+        <v>15933.069694483313</v>
       </c>
       <c r="ED2" t="n">
-        <v>15540.855085207622</v>
+        <v>15942.10632048682</v>
       </c>
       <c r="EE2" t="n">
-        <v>15638.933448766833</v>
+        <v>16043.26425372444</v>
       </c>
       <c r="EF2" t="n">
-        <v>15743.467486566273</v>
+        <v>16150.915202632052</v>
       </c>
       <c r="EG2" t="n">
-        <v>15832.311534199684</v>
+        <v>16243.054082303695</v>
       </c>
       <c r="EH2" t="n">
-        <v>15826.387426194953</v>
+        <v>16237.516567924782</v>
       </c>
       <c r="EI2" t="n">
-        <v>15819.338682187843</v>
+        <v>16231.291531927227</v>
       </c>
       <c r="EJ2" t="n">
-        <v>15832.99026959956</v>
+        <v>16244.60265336166</v>
       </c>
       <c r="EK2" t="n">
-        <v>15944.546692749806</v>
+        <v>16360.528023794594</v>
       </c>
       <c r="EL2" t="n">
-        <v>16048.97529592403</v>
+        <v>16467.838506724907</v>
       </c>
       <c r="EM2" t="n">
-        <v>16161.524561795135</v>
+        <v>16585.516727802176</v>
       </c>
       <c r="EN2" t="n">
-        <v>16162.552549391063</v>
+        <v>16585.655110747783</v>
       </c>
       <c r="EO2" t="n">
-        <v>16151.191968523257</v>
+        <v>16575.621248914034</v>
       </c>
       <c r="EP2" t="n">
-        <v>16146.6758520762</v>
+        <v>16570.147434621198</v>
       </c>
       <c r="EQ2" t="n">
-        <v>16263.701696409908</v>
+        <v>16692.50651374744</v>
       </c>
       <c r="ER2" t="n">
-        <v>16388.351782080063</v>
+        <v>16819.71997874334</v>
       </c>
       <c r="ES2" t="n">
-        <v>16486.375231771966</v>
+        <v>16922.343013960617</v>
       </c>
       <c r="ET2" t="n">
-        <v>16464.688647296363</v>
+        <v>16898.778375223224</v>
       </c>
       <c r="EU2" t="n">
-        <v>16435.514007875227</v>
+        <v>16870.853575421916</v>
       </c>
       <c r="EV2" t="n">
-        <v>16404.817156052428</v>
+        <v>16837.29680938993</v>
       </c>
       <c r="EW2" t="n">
-        <v>16461.4333532426</v>
+        <v>16897.12876264942</v>
       </c>
       <c r="EX2" t="n">
-        <v>16514.19459694805</v>
+        <v>16949.73185441704</v>
       </c>
       <c r="EY2" t="n">
-        <v>16560.203631529832</v>
+        <v>17000.568916212174</v>
       </c>
       <c r="EZ2" t="n">
-        <v>16497.507370951786</v>
+        <v>16934.29886114999</v>
       </c>
       <c r="FA2" t="n">
-        <v>16437.19876532411</v>
+        <v>16874.28459385105</v>
       </c>
       <c r="FB2" t="n">
-        <v>16367.135260308589</v>
+        <v>16799.641272302386</v>
       </c>
       <c r="FC2" t="n">
-        <v>16374.430018441219</v>
+        <v>16809.086457478636</v>
       </c>
       <c r="FD2" t="n">
-        <v>16343.963804861089</v>
+        <v>16776.68727576941</v>
       </c>
       <c r="FE2" t="n">
-        <v>16277.434556345232</v>
+        <v>16709.63744379152</v>
       </c>
       <c r="FF2" t="n">
-        <v>16083.109755840056</v>
+        <v>16508.8899173665</v>
       </c>
       <c r="FG2" t="n">
-        <v>15854.206791371043</v>
+        <v>16274.111169095997</v>
       </c>
       <c r="FH2" t="n">
-        <v>15588.76194304342</v>
+        <v>16001.626362980032</v>
       </c>
       <c r="FI2" t="n">
-        <v>15362.086285032254</v>
+        <v>15769.461514793182</v>
       </c>
       <c r="FJ2" t="n">
-        <v>15083.940957474619</v>
+        <v>15484.722130049711</v>
       </c>
       <c r="FK2" t="n">
-        <v>14737.70243446032</v>
+        <v>15129.862129868727</v>
       </c>
       <c r="FL2" t="n">
-        <v>14275.734034380686</v>
+        <v>14659.248090520778</v>
       </c>
       <c r="FM2" t="n">
-        <v>13755.214272427082</v>
+        <v>14128.31446277169</v>
       </c>
       <c r="FN2" t="n">
-        <v>13234.523179207492</v>
+        <v>13596.827303240172</v>
       </c>
       <c r="FO2" t="n">
-        <v>12752.467286468136</v>
+        <v>13103.382274422025</v>
       </c>
       <c r="FP2" t="n">
-        <v>12279.900509998877</v>
+        <v>12619.733879530866</v>
       </c>
       <c r="FQ2" t="n">
-        <v>11776.20855354184</v>
+        <v>12104.200296728452</v>
       </c>
       <c r="FR2" t="n">
-        <v>11247.427549391059</v>
+        <v>11562.663899480356</v>
       </c>
       <c r="FS2" t="n">
-        <v>10757.931925909385</v>
+        <v>11059.75611304841</v>
       </c>
       <c r="FT2" t="n">
-        <v>10375.586436865517</v>
+        <v>10667.216413678265</v>
       </c>
       <c r="FU2" t="n">
-        <v>10175.55938037953</v>
+        <v>10460.092288981932</v>
       </c>
       <c r="FV2" t="n">
-        <v>10099.519050046669</v>
+        <v>10382.224425145198</v>
       </c>
       <c r="FW2" t="n">
-        <v>10078.75721509646</v>
+        <v>10360.445585372527</v>
       </c>
       <c r="FX2" t="n">
-        <v>10016.790210676196</v>
+        <v>10297.808631771159</v>
       </c>
       <c r="FY2" t="n">
-        <v>9923.006111540128</v>
+        <v>10201.82578138826</v>
       </c>
       <c r="FZ2" t="n">
-        <v>9832.50586166883</v>
+        <v>10109.572680872627</v>
       </c>
       <c r="GA2" t="n">
-        <v>9795.935422599214</v>
+        <v>10071.563498479654</v>
       </c>
       <c r="GB2" t="n">
-        <v>9762.607098255216</v>
+        <v>10037.108341578582</v>
       </c>
       <c r="GC2" t="n">
-        <v>9708.46861475779</v>
+        <v>9980.481161614945</v>
       </c>
       <c r="GD2" t="n">
-        <v>9591.21872184549</v>
+        <v>9860.692051478514</v>
       </c>
       <c r="GE2" t="n">
-        <v>9469.555950556653</v>
+        <v>9734.370387687628</v>
       </c>
       <c r="GF2" t="n">
-        <v>9364.65289156892</v>
+        <v>9626.548107514032</v>
       </c>
       <c r="GG2" t="n">
-        <v>9319.340164824549</v>
+        <v>9579.093739944816</v>
       </c>
       <c r="GH2" t="n">
-        <v>9302.26195209308</v>
+        <v>9562.261541338868</v>
       </c>
       <c r="GI2" t="n">
-        <v>9316.486840279447</v>
+        <v>9576.095442790034</v>
       </c>
       <c r="GJ2" t="n">
-        <v>9312.948190670393</v>
+        <v>9572.602920829515</v>
       </c>
       <c r="GK2" t="n">
-        <v>9336.730288322304</v>
+        <v>9596.380625372041</v>
       </c>
       <c r="GL2" t="n">
-        <v>9359.747984941352</v>
+        <v>9621.098455322814</v>
       </c>
       <c r="GM2" t="n">
-        <v>9432.568166095525</v>
+        <v>9695.673683676014</v>
       </c>
       <c r="GN2" t="n">
-        <v>9478.676045638464</v>
+        <v>9744.085749091013</v>
       </c>
       <c r="GO2" t="n">
-        <v>9489.51823959892</v>
+        <v>9755.29037457567</v>
       </c>
       <c r="GP2" t="n">
-        <v>9396.87634890278</v>
+        <v>9660.954940211883</v>
       </c>
       <c r="GQ2" t="n">
-        <v>9271.369606902686</v>
+        <v>9531.459254890842</v>
       </c>
       <c r="GR2" t="n">
-        <v>9122.249901961972</v>
+        <v>9378.306675535337</v>
       </c>
       <c r="GS2" t="n">
-        <v>9013.476513606673</v>
+        <v>9265.228039983429</v>
       </c>
       <c r="GT2" t="n">
-        <v>8903.712479085216</v>
+        <v>9151.43332760188</v>
       </c>
       <c r="GU2" t="n">
-        <v>8805.768105362227</v>
+        <v>9048.750985407922</v>
       </c>
       <c r="GV2" t="n">
-        <v>8662.972281380216</v>
+        <v>8901.037075470185</v>
       </c>
       <c r="GW2" t="n">
-        <v>8569.284830650608</v>
+        <v>8803.63305420146</v>
       </c>
       <c r="GX2" t="n">
-        <v>8509.602243110183</v>
+        <v>8743.07623789356</v>
       </c>
       <c r="GY2" t="n">
-        <v>8563.275057012885</v>
+        <v>8798.253691760377</v>
       </c>
       <c r="GZ2" t="n">
-        <v>8636.888194410929</v>
+        <v>8874.649863953373</v>
       </c>
       <c r="HA2" t="n">
-        <v>8749.099190859435</v>
+        <v>8990.709224222532</v>
       </c>
       <c r="HB2" t="n">
-        <v>8850.6876488167</v>
+        <v>9097.083974854</v>
       </c>
       <c r="HC2" t="n">
-        <v>8975.199351541254</v>
+        <v>9226.601625721962</v>
       </c>
       <c r="HD2" t="n">
-        <v>9130.280505916468</v>
+        <v>9386.405372685294</v>
       </c>
       <c r="HE2" t="n">
-        <v>9339.526502445424</v>
+        <v>9600.852810725259</v>
       </c>
       <c r="HF2" t="n">
-        <v>9568.339408172045</v>
+        <v>9837.00440567836</v>
       </c>
       <c r="HG2" t="n">
-        <v>9784.827445521023</v>
+        <v>10059.816323986037</v>
       </c>
       <c r="HH2" t="n">
-        <v>9932.260196458165</v>
+        <v>10212.878844599165</v>
       </c>
       <c r="HI2" t="n">
-        <v>10066.100666960281</v>
+        <v>10350.066864452116</v>
       </c>
       <c r="HJ2" t="n">
-        <v>10194.84073746722</v>
+        <v>10482.589402138941</v>
       </c>
       <c r="HK2" t="n">
-        <v>10370.549736956418</v>
+        <v>10662.107227464325</v>
       </c>
       <c r="HL2" t="n">
-        <v>10526.768706662164</v>
+        <v>10822.938962023587</v>
       </c>
       <c r="HM2" t="n">
-        <v>10660.88594305549</v>
+        <v>10960.41473054121</v>
       </c>
       <c r="HN2" t="n">
-        <v>10720.291764704692</v>
+        <v>11022.34659008639</v>
       </c>
       <c r="HO2" t="n">
-        <v>10751.733248568138</v>
+        <v>11054.422878255864</v>
       </c>
       <c r="HP2" t="n">
-        <v>10776.598247683281</v>
+        <v>11079.995167981884</v>
       </c>
       <c r="HQ2" t="n">
-        <v>10832.889354779027</v>
+        <v>11137.61299411169</v>
       </c>
       <c r="HR2" t="n">
-        <v>10869.48834905964</v>
+        <v>11175.356393386915</v>
       </c>
       <c r="HS2" t="n">
-        <v>10871.700279634637</v>
+        <v>11177.359651266159</v>
       </c>
       <c r="HT2" t="n">
-        <v>10803.033783403318</v>
+        <v>11107.236839273939</v>
       </c>
       <c r="HU2" t="n">
-        <v>10727.546984852872</v>
+        <v>11029.43926518735</v>
       </c>
       <c r="HV2" t="n">
-        <v>10648.084422309634</v>
+        <v>10949.486870947761</v>
       </c>
       <c r="HW2" t="n">
-        <v>10622.516525693007</v>
+        <v>10922.948097157197</v>
       </c>
       <c r="HX2" t="n">
-        <v>10586.578694374737</v>
+        <v>10886.682979189793</v>
       </c>
       <c r="HY2" t="n">
-        <v>10528.01195661793</v>
+        <v>10825.570434544783</v>
       </c>
       <c r="HZ2" t="n">
-        <v>10392.471352784085</v>
+        <v>10686.478001773738</v>
       </c>
       <c r="IA2" t="n">
-        <v>10243.024361194239</v>
+        <v>10532.014079267023</v>
       </c>
       <c r="IB2" t="n">
-        <v>10083.40073171566</v>
+        <v>10368.111561248132</v>
       </c>
       <c r="IC2" t="n">
-        <v>9967.91467222115</v>
+        <v>10248.155512955098</v>
       </c>
       <c r="ID2" t="n">
-        <v>9835.247161924643</v>
+        <v>10112.450167519348</v>
       </c>
       <c r="IE2" t="n">
-        <v>9688.277884027542</v>
+        <v>9960.413437947456</v>
       </c>
       <c r="IF2" t="n">
-        <v>9486.337628404692</v>
+        <v>9753.557292923566</v>
       </c>
       <c r="IG2" t="n">
-        <v>9282.183245652146</v>
+        <v>9542.158672796308</v>
       </c>
       <c r="IH2" t="n">
-        <v>9091.86496090545</v>
+        <v>9346.059056099875</v>
       </c>
       <c r="II2" t="n">
-        <v>8950.49470091864</v>
+        <v>9199.906896548258</v>
       </c>
       <c r="IJ2" t="n">
-        <v>8824.577203191113</v>
+        <v>9070.470518203905</v>
       </c>
       <c r="IK2" t="n">
-        <v>8724.75477520634</v>
+        <v>8967.454299696738</v>
       </c>
       <c r="IL2" t="n">
-        <v>8612.22967143685</v>
+        <v>8850.847997309233</v>
       </c>
       <c r="IM2" t="n">
-        <v>8538.396878569589</v>
+        <v>8774.388125030164</v>
       </c>
       <c r="IN2" t="n">
-        <v>8492.346109448648</v>
+        <v>8727.063354187781</v>
       </c>
       <c r="IO2" t="n">
-        <v>8532.646298385536</v>
+        <v>8768.04227852454</v>
       </c>
       <c r="IP2" t="n">
-        <v>8585.236210825009</v>
+        <v>8822.503655561717</v>
       </c>
       <c r="IQ2" t="n">
-        <v>8639.113304314082</v>
+        <v>8877.505385053168</v>
       </c>
       <c r="IR2" t="n">
-        <v>8637.529588381043</v>
+        <v>8876.604797629387</v>
       </c>
       <c r="IS2" t="n">
-        <v>8630.371016639323</v>
+        <v>8869.545070848815</v>
       </c>
       <c r="IT2" t="n">
-        <v>8622.1778676376</v>
+        <v>8862.210774731722</v>
       </c>
       <c r="IU2" t="n">
-        <v>8662.390194386802</v>
+        <v>8903.117212763644</v>
       </c>
       <c r="IV2" t="n">
-        <v>8711.71163344435</v>
+        <v>8953.43369109674</v>
       </c>
       <c r="IW2" t="n">
-        <v>8781.36438273244</v>
+        <v>9024.147376301144</v>
       </c>
       <c r="IX2" t="n">
-        <v>8830.14327278102</v>
+        <v>9076.50884705263</v>
       </c>
       <c r="IY2" t="n">
-        <v>8929.508817389833</v>
+        <v>9178.940782011681</v>
       </c>
       <c r="IZ2" t="n">
-        <v>9069.543572123815</v>
+        <v>9325.055600133534</v>
       </c>
       <c r="JA2" t="n">
-        <v>9313.112932272315</v>
+        <v>9574.571033833681</v>
       </c>
       <c r="JB2" t="n">
-        <v>9577.846096879677</v>
+        <v>9848.057468889265</v>
       </c>
       <c r="JC2" t="n">
-        <v>9870.63585456988</v>
+        <v>10148.52857833792</v>
       </c>
       <c r="JD2" t="n">
-        <v>10109.025738754279</v>
+        <v>10395.168721946036</v>
       </c>
       <c r="JE2" t="n">
-        <v>10347.075156961406</v>
+        <v>10639.29600698634</v>
       </c>
       <c r="JF2" t="n">
-        <v>10575.092909889476</v>
+        <v>10874.988522008785</v>
       </c>
       <c r="JG2" t="n">
-        <v>10837.554836945159</v>
+        <v>11144.1016166723</v>
       </c>
       <c r="JH2" t="n">
-        <v>11077.447164538991</v>
+        <v>11391.714834009044</v>
       </c>
       <c r="JI2" t="n">
-        <v>11272.435324561195</v>
+        <v>11591.26084501746</v>
       </c>
       <c r="JJ2" t="n">
-        <v>11376.76727932896</v>
+        <v>11698.762428205993</v>
       </c>
       <c r="JK2" t="n">
-        <v>11433.640473418127</v>
+        <v>11756.722916867768</v>
       </c>
       <c r="JL2" t="n">
-        <v>11464.352701123775</v>
+        <v>11787.551561972099</v>
       </c>
       <c r="JM2" t="n">
-        <v>11508.14760857587</v>
+        <v>11831.175138158209</v>
       </c>
       <c r="JN2" t="n">
-        <v>11530.578825092109</v>
+        <v>11854.129134691182</v>
       </c>
       <c r="JO2" t="n">
-        <v>11492.602591019519</v>
+        <v>11814.881095451836</v>
       </c>
       <c r="JP2" t="n">
-        <v>11377.274683462843</v>
+        <v>11697.791551032058</v>
       </c>
       <c r="JQ2" t="n">
-        <v>11213.941073109227</v>
+        <v>11529.328985472266</v>
       </c>
       <c r="JR2" t="n">
-        <v>11030.946101706164</v>
+        <v>11341.536738621557</v>
       </c>
       <c r="JS2" t="n">
-        <v>10881.347547842563</v>
+        <v>11185.987718096914</v>
       </c>
       <c r="JT2" t="n">
-        <v>10731.995008104479</v>
+        <v>11032.564962514278</v>
       </c>
       <c r="JU2" t="n">
-        <v>10594.152414953265</v>
+        <v>10890.623598307511</v>
       </c>
       <c r="JV2" t="n">
-        <v>10381.752165886393</v>
+        <v>10672.718783182107</v>
       </c>
       <c r="JW2" t="n">
-        <v>10191.649143499535</v>
+        <v>10476.51812496984</v>
       </c>
       <c r="JX2" t="n">
-        <v>10058.904753788804</v>
+        <v>10340.300982290815</v>
       </c>
       <c r="JY2" t="n">
-        <v>10008.34665443957</v>
+        <v>10289.116864854326</v>
       </c>
       <c r="JZ2" t="n">
-        <v>9913.477457285584</v>
+        <v>10192.828693369212</v>
       </c>
       <c r="KA2" t="n">
-        <v>9780.834109090692</v>
+        <v>10056.040446470231</v>
       </c>
       <c r="KB2" t="n">
-        <v>9646.262185876092</v>
+        <v>9917.207207152858</v>
       </c>
       <c r="KC2" t="n">
-        <v>9561.459798876238</v>
+        <v>9828.538883894818</v>
       </c>
       <c r="KD2" t="n">
-        <v>9471.22752867738</v>
+        <v>9736.369252457487</v>
       </c>
       <c r="KE2" t="n">
-        <v>9375.479709646537</v>
+        <v>9636.318382784724</v>
       </c>
       <c r="KF2" t="n">
-        <v>9261.32695885017</v>
+        <v>9518.031716057725</v>
       </c>
       <c r="KG2" t="n">
-        <v>9126.864863370176</v>
+        <v>9377.03267381389</v>
       </c>
       <c r="KH2" t="n">
-        <v>8941.539347438751</v>
+        <v>9185.736922229193</v>
       </c>
       <c r="KI2" t="n">
-        <v>8685.535291177986</v>
+        <v>8921.614399826249</v>
       </c>
       <c r="KJ2" t="n">
-        <v>8389.14318379266</v>
+        <v>8615.386120529469</v>
       </c>
       <c r="KK2" t="n">
-        <v>8089.8450345496085</v>
+        <v>8304.722997309236</v>
       </c>
       <c r="KL2" t="n">
-        <v>7780.952334411249</v>
+        <v>7984.843130600738</v>
       </c>
       <c r="KM2" t="n">
-        <v>7484.235136931479</v>
+        <v>7677.920740021236</v>
       </c>
       <c r="KN2" t="n">
-        <v>7226.14874682256</v>
+        <v>7411.770797637434</v>
       </c>
       <c r="KO2" t="n">
-        <v>7111.222808774553</v>
+        <v>7292.234291290603</v>
       </c>
       <c r="KP2" t="n">
-        <v>7107.35906907106</v>
+        <v>7287.979564851909</v>
       </c>
       <c r="KQ2" t="n">
-        <v>7142.96302407613</v>
+        <v>7323.8646788575725</v>
       </c>
       <c r="KR2" t="n">
-        <v>7203.730709634477</v>
+        <v>7386.71030515469</v>
       </c>
       <c r="KS2" t="n">
-        <v>7225.259142172246</v>
+        <v>7408.812038467108</v>
       </c>
       <c r="KT2" t="n">
-        <v>7214.988052431749</v>
+        <v>7399.492056908312</v>
       </c>
       <c r="KU2" t="n">
-        <v>7163.801738440566</v>
+        <v>7346.126760662515</v>
       </c>
       <c r="KV2" t="n">
-        <v>7103.642498531946</v>
+        <v>7284.689125923066</v>
       </c>
       <c r="KW2" t="n">
-        <v>7149.6734986606525</v>
+        <v>7331.047412700903</v>
       </c>
       <c r="KX2" t="n">
-        <v>7174.516532228871</v>
+        <v>7357.480751866242</v>
       </c>
       <c r="KY2" t="n">
-        <v>7189.31472118989</v>
+        <v>7371.778126357451</v>
       </c>
       <c r="KZ2" t="n">
-        <v>7178.235299322681</v>
+        <v>7360.533962888333</v>
       </c>
       <c r="LA2" t="n">
-        <v>7163.632603729267</v>
+        <v>7344.995534996062</v>
       </c>
       <c r="LB2" t="n">
-        <v>7183.392809739852</v>
+        <v>7365.3575969922995</v>
       </c>
       <c r="LC2" t="n">
-        <v>7200.468825916633</v>
+        <v>7382.137078285635</v>
       </c>
       <c r="LD2" t="n">
-        <v>7260.803790200625</v>
+        <v>7444.150210354426</v>
       </c>
       <c r="LE2" t="n">
-        <v>7346.001557045063</v>
+        <v>7531.289731546727</v>
       </c>
       <c r="LF2" t="n">
-        <v>7409.868581274027</v>
+        <v>7598.07158385218</v>
       </c>
       <c r="LG2" t="n">
-        <v>7456.960517319038</v>
+        <v>7646.472666493718</v>
       </c>
       <c r="LH2" t="n">
-        <v>7515.373496247402</v>
+        <v>7707.2074037316825</v>
       </c>
       <c r="LI2" t="n">
-        <v>7608.230649303378</v>
+        <v>7801.771279783453</v>
       </c>
       <c r="LJ2" t="n">
-        <v>7707.486366177589</v>
+        <v>7904.229573398813</v>
       </c>
       <c r="LK2" t="n">
-        <v>7762.191560785599</v>
+        <v>7960.070386782659</v>
       </c>
       <c r="LL2" t="n">
-        <v>7756.021438655346</v>
+        <v>7954.596572489821</v>
       </c>
       <c r="LM2" t="n">
-        <v>7710.6164566139005</v>
+        <v>7906.720466419712</v>
       </c>
       <c r="LN2" t="n">
-        <v>7660.589923500171</v>
+        <v>7854.728016856513</v>
       </c>
       <c r="LO2" t="n">
-        <v>7601.847461367986</v>
+        <v>7791.877997450009</v>
       </c>
       <c r="LP2" t="n">
-        <v>7517.335019587495</v>
+        <v>7703.642395466321</v>
       </c>
       <c r="LQ2" t="n">
-        <v>7381.4451635576015</v>
+        <v>7561.490162009109</v>
       </c>
       <c r="LR2" t="n">
-        <v>7173.440220429718</v>
+        <v>7345.773115357082</v>
       </c>
       <c r="LS2" t="n">
-        <v>6930.837344345771</v>
+        <v>7093.606440143511</v>
       </c>
       <c r="LT2" t="n">
-        <v>6673.488996613417</v>
+        <v>6825.431274333544</v>
       </c>
       <c r="LU2" t="n">
-        <v>6439.301121555097</v>
+        <v>6580.313343127083</v>
       </c>
       <c r="LV2" t="n">
-        <v>6210.514574484776</v>
+        <v>6340.041011571503</v>
       </c>
       <c r="LW2" t="n">
-        <v>5986.582413284105</v>
+        <v>6105.033821613011</v>
       </c>
       <c r="LX2" t="n">
-        <v>5743.516064160113</v>
+        <v>5850.273015308011</v>
       </c>
       <c r="LY2" t="n">
-        <v>5514.821772386859</v>
+        <v>5610.092939049503</v>
       </c>
       <c r="LZ2" t="n">
-        <v>5293.485938832313</v>
+        <v>5377.785314807664</v>
       </c>
       <c r="MA2" t="n">
-        <v>5103.74534796966</v>
+        <v>5177.184957547016</v>
       </c>
       <c r="MB2" t="n">
-        <v>4930.019837367475</v>
+        <v>4993.192750313722</v>
       </c>
       <c r="MC2" t="n">
-        <v>4775.342849055619</v>
+        <v>4828.760862614027</v>
       </c>
       <c r="MD2" t="n">
-        <v>4631.402620078995</v>
+        <v>4677.01627481619</v>
       </c>
       <c r="ME2" t="n">
-        <v>4515.174125098543</v>
+        <v>4554.72309233071</v>
       </c>
       <c r="MF2" t="n">
-        <v>4441.1941630669135</v>
+        <v>4476.697076556138</v>
       </c>
       <c r="MG2" t="n">
-        <v>4414.292957752148</v>
+        <v>4448.018858495423</v>
       </c>
       <c r="MH2" t="n">
-        <v>4401.6034612955955</v>
+        <v>4433.47986298808</v>
       </c>
       <c r="MI2" t="n">
-        <v>4377.070141938965</v>
+        <v>4407.184906768346</v>
       </c>
       <c r="MJ2" t="n">
-        <v>4323.911321834227</v>
+        <v>4350.351250663642</v>
       </c>
       <c r="MK2" t="n">
-        <v>4256.292582191066</v>
+        <v>4280.090055725822</v>
       </c>
       <c r="ML2" t="n">
-        <v>4192.515616704476</v>
+        <v>4213.576183092812</v>
       </c>
       <c r="MM2" t="n">
-        <v>4161.790209670676</v>
+        <v>4180.390634803806</v>
       </c>
       <c r="MN2" t="n">
-        <v>4150.9963399134485</v>
+        <v>4168.037211215153</v>
       </c>
       <c r="MO2" t="n">
-        <v>4152.066062048526</v>
+        <v>4168.274439121905</v>
       </c>
       <c r="MP2" t="n">
-        <v>4146.93271373297</v>
+        <v>4164.250350925885</v>
       </c>
       <c r="MQ2" t="n">
-        <v>4139.343617271589</v>
+        <v>4157.5245004585195</v>
       </c>
       <c r="MR2" t="n">
-        <v>4144.044244312791</v>
+        <v>4163.272884087877</v>
       </c>
       <c r="MS2" t="n">
-        <v>4164.362375215184</v>
+        <v>4184.225819296301</v>
       </c>
       <c r="MT2" t="n">
-        <v>4195.285472171278</v>
+        <v>4216.7699736152</v>
       </c>
       <c r="MU2" t="n">
-        <v>4214.285670258379</v>
+        <v>4236.73006610277</v>
       </c>
       <c r="MV2" t="n">
-        <v>4216.59644579452</v>
+        <v>4240.205015625751</v>
       </c>
       <c r="MW2" t="n">
-        <v>4205.128233746804</v>
+        <v>4227.7834988416425</v>
       </c>
       <c r="MX2" t="n">
-        <v>4191.166932123496</v>
+        <v>4213.499303678589</v>
       </c>
       <c r="MY2" t="n">
-        <v>4188.1927970703255</v>
+        <v>4209.593829435945</v>
       </c>
       <c r="MZ2" t="n">
-        <v>4186.554167269982</v>
+        <v>4207.555426681629</v>
       </c>
       <c r="NA2" t="n">
-        <v>4184.258767616684</v>
+        <v>4204.99204735589</v>
       </c>
       <c r="NB2" t="n">
-        <v>4159.268564884088</v>
+        <v>4179.949127310683</v>
       </c>
       <c r="NC2" t="n">
-        <v>4143.934416578183</v>
+        <v>4164.094395542743</v>
       </c>
       <c r="ND2" t="n">
-        <v>4127.172507722383</v>
+        <v>4146.508778677387</v>
       </c>
       <c r="NE2" t="n">
-        <v>4136.235492382196</v>
+        <v>4154.504237756815</v>
       </c>
       <c r="NF2" t="n">
-        <v>4138.702223301481</v>
+        <v>4157.243341457927</v>
       </c>
       <c r="NG2" t="n">
-        <v>4150.304425185422</v>
+        <v>4169.256299069297</v>
       </c>
       <c r="NH2" t="n">
-        <v>4132.198224858023</v>
+        <v>4151.549871695869</v>
       </c>
       <c r="NI2" t="n">
-        <v>4119.697632104992</v>
+        <v>4138.7834958250905</v>
       </c>
       <c r="NJ2" t="n">
-        <v>4104.787418854674</v>
+        <v>4123.324143901736</v>
       </c>
       <c r="NK2" t="n">
-        <v>4120.973830381133</v>
+        <v>4139.220610208829</v>
       </c>
       <c r="NL2" t="n">
-        <v>4136.402430538798</v>
+        <v>4154.473485991123</v>
       </c>
       <c r="NM2" t="n">
-        <v>4149.799217606226</v>
+        <v>4167.918597261776</v>
       </c>
       <c r="NN2" t="n">
-        <v>4138.0849914329865</v>
+        <v>4156.307609159068</v>
       </c>
       <c r="NO2" t="n">
-        <v>4121.850255703301</v>
+        <v>4140.470449828663</v>
       </c>
       <c r="NP2" t="n">
-        <v>4104.613891033995</v>
+        <v>4123.403219870654</v>
       </c>
       <c r="NQ2" t="n">
-        <v>4109.652787497788</v>
+        <v>4128.325698935764</v>
       </c>
       <c r="NR2" t="n">
-        <v>4118.8805137595145</v>
+        <v>4138.016898237533</v>
       </c>
       <c r="NS2" t="n">
-        <v>4123.21651272182</v>
+        <v>4142.104686519625</v>
       </c>
       <c r="NT2" t="n">
-        <v>4114.140348733853</v>
+        <v>4133.046094969196</v>
       </c>
       <c r="NU2" t="n">
-        <v>4093.65088656547</v>
+        <v>4112.2249530423</v>
       </c>
       <c r="NV2" t="n">
-        <v>4076.0103558328083</v>
+        <v>4094.5075428954115</v>
       </c>
       <c r="NW2" t="n">
-        <v>4072.557371856748</v>
+        <v>4090.944731184742</v>
       </c>
       <c r="NX2" t="n">
-        <v>4080.4188410999554</v>
+        <v>4098.333941169138</v>
       </c>
       <c r="NY2" t="n">
-        <v>4081.734577360554</v>
+        <v>4099.063197326931</v>
       </c>
       <c r="NZ2" t="n">
-        <v>4063.164903993112</v>
+        <v>4080.486934295413</v>
       </c>
       <c r="OA2" t="n">
-        <v>4045.087258876712</v>
+        <v>4061.6734433571414</v>
       </c>
       <c r="OB2" t="n">
-        <v>4038.7809503555472</v>
+        <v>4055.2924519764433</v>
       </c>
       <c r="OC2" t="n">
-        <v>4050.1261553405056</v>
+        <v>4065.6096693654745</v>
       </c>
       <c r="OD2" t="n">
-        <v>4064.069884526278</v>
+        <v>4079.847736879996</v>
       </c>
       <c r="OE2" t="n">
-        <v>4083.5643074191157</v>
+        <v>4099.86933289895</v>
       </c>
       <c r="OF2" t="n">
-        <v>4089.7915399713615</v>
+        <v>4107.0828185079745</v>
       </c>
       <c r="OG2" t="n">
-        <v>4100.403095689143</v>
+        <v>4118.335768195861</v>
       </c>
       <c r="OH2" t="n">
-        <v>4116.973904286726</v>
+        <v>4136.022426577057</v>
       </c>
       <c r="OI2" t="n">
-        <v>4161.478298904389</v>
+        <v>4182.584992941261</v>
       </c>
       <c r="OJ2" t="n">
-        <v>4213.839769655872</v>
+        <v>4237.795395128463</v>
       </c>
       <c r="OK2" t="n">
-        <v>4265.370942733722</v>
+        <v>4291.595609203306</v>
       </c>
       <c r="OL2" t="n">
-        <v>4294.079912560128</v>
+        <v>4323.140331137282</v>
       </c>
       <c r="OM2" t="n">
-        <v>4327.127077903534</v>
+        <v>4359.144059096322</v>
       </c>
       <c r="ON2" t="n">
-        <v>4369.757811368792</v>
+        <v>4405.014710732498</v>
       </c>
       <c r="OO2" t="n">
-        <v>4442.3517473896745</v>
+        <v>4480.69041298647</v>
       </c>
       <c r="OP2" t="n">
-        <v>4519.343185904243</v>
+        <v>4561.198535563169</v>
       </c>
       <c r="OQ2" t="n">
-        <v>4592.367646644788</v>
+        <v>4638.449167531412</v>
       </c>
       <c r="OR2" t="n">
-        <v>4648.144759942567</v>
+        <v>4698.513955588265</v>
       </c>
       <c r="OS2" t="n">
-        <v>4697.5826163987995</v>
+        <v>4751.826534521452</v>
       </c>
       <c r="OT2" t="n">
-        <v>4758.444753808905</v>
+        <v>4817.0378502220165</v>
       </c>
       <c r="OU2" t="n">
-        <v>4831.201234877007</v>
+        <v>4893.939229994207</v>
       </c>
       <c r="OV2" t="n">
-        <v>4914.9338997417835</v>
+        <v>4982.168242313818</v>
       </c>
       <c r="OW2" t="n">
-        <v>4984.391155662273</v>
+        <v>5056.001035181073</v>
       </c>
       <c r="OX2" t="n">
-        <v>5039.667454490241</v>
+        <v>5115.14766337661</v>
       </c>
       <c r="OY2" t="n">
-        <v>5084.52549441334</v>
+        <v>5163.159955837635</v>
       </c>
       <c r="OZ2" t="n">
-        <v>5142.565059044034</v>
+        <v>5225.228001773732</v>
       </c>
       <c r="PA2" t="n">
-        <v>5220.419743552618</v>
+        <v>5306.441218406614</v>
       </c>
       <c r="PB2" t="n">
-        <v>5313.158282655212</v>
+        <v>5404.554726840903</v>
       </c>
       <c r="PC2" t="n">
-        <v>5399.397216423734</v>
+        <v>5494.404796523319</v>
       </c>
       <c r="PD2" t="n">
-        <v>5471.850572944318</v>
+        <v>5572.433008852582</v>
       </c>
       <c r="PE2" t="n">
-        <v>5540.492907074021</v>
+        <v>5645.668338843573</v>
       </c>
       <c r="PF2" t="n">
-        <v>5634.27700621008</v>
+        <v>5745.097583538459</v>
       </c>
       <c r="PG2" t="n">
-        <v>5765.938494457583</v>
+        <v>5882.905031814599</v>
       </c>
       <c r="PH2" t="n">
-        <v>5929.748757179402</v>
+        <v>6053.847507621831</v>
       </c>
       <c r="PI2" t="n">
-        <v>6098.114674332738</v>
+        <v>6230.022176705762</v>
       </c>
       <c r="PJ2" t="n">
-        <v>6254.581854718695</v>
+        <v>6394.24319515501</v>
       </c>
       <c r="PK2" t="n">
-        <v>6393.0197141914805</v>
+        <v>6539.663901994143</v>
       </c>
       <c r="PL2" t="n">
-        <v>6552.149118864327</v>
+        <v>6706.191302870153</v>
       </c>
       <c r="PM2" t="n">
-        <v>6727.8647080176015</v>
+        <v>6889.274136460898</v>
       </c>
       <c r="PN2" t="n">
-        <v>6920.733192761879</v>
+        <v>7089.211134204515</v>
       </c>
       <c r="PO2" t="n">
-        <v>7077.28603878083</v>
+        <v>7251.844043611339</v>
       </c>
       <c r="PP2" t="n">
-        <v>7193.283895518609</v>
+        <v>7373.643001291086</v>
       </c>
       <c r="PQ2" t="n">
-        <v>7277.515178298506</v>
+        <v>7461.667734024326</v>
       </c>
       <c r="PR2" t="n">
-        <v>7369.315788547552</v>
+        <v>7557.745036258988</v>
       </c>
       <c r="PS2" t="n">
-        <v>7474.199078543046</v>
+        <v>7665.255405666297</v>
       </c>
       <c r="PT2" t="n">
-        <v>7590.557170250336</v>
+        <v>7785.850651374745</v>
       </c>
       <c r="PU2" t="n">
-        <v>7673.1586094486565</v>
+        <v>7870.617893499523</v>
       </c>
       <c r="PV2" t="n">
-        <v>7717.006234213365</v>
+        <v>7916.350162190097</v>
       </c>
       <c r="PW2" t="n">
-        <v>7725.948408365111</v>
+        <v>7925.955695858869</v>
       </c>
       <c r="PX2" t="n">
-        <v>7747.237416441433</v>
+        <v>7949.338020556813</v>
       </c>
       <c r="PY2" t="n">
-        <v>7790.99058935438</v>
+        <v>7994.549705785345</v>
       </c>
       <c r="PZ2" t="n">
-        <v>7840.472376904455</v>
+        <v>8046.311517105875</v>
       </c>
       <c r="QA2" t="n">
-        <v>7869.552564473833</v>
+        <v>8075.582804933475</v>
       </c>
       <c r="QB2" t="n">
-        <v>7861.644967582092</v>
+        <v>8067.800411659184</v>
       </c>
       <c r="QC2" t="n">
-        <v>7837.302748483681</v>
+        <v>8041.810776541658</v>
       </c>
       <c r="QD2" t="n">
-        <v>7818.096074255518</v>
+        <v>8021.58929404572</v>
       </c>
       <c r="QE2" t="n">
-        <v>7823.016356765934</v>
+        <v>8026.197665789851</v>
       </c>
       <c r="QF2" t="n">
-        <v>7843.644201879918</v>
+        <v>8047.622860257088</v>
       </c>
       <c r="QG2" t="n">
-        <v>7843.437725738856</v>
+        <v>8047.137421670122</v>
       </c>
       <c r="QH2" t="n">
-        <v>7804.257779694967</v>
+        <v>8005.978379848607</v>
       </c>
       <c r="QI2" t="n">
-        <v>7739.310050557462</v>
+        <v>7938.790164925108</v>
       </c>
       <c r="QJ2" t="n">
-        <v>7685.312146560325</v>
+        <v>7883.340338276464</v>
       </c>
       <c r="QK2" t="n">
-        <v>7653.501641508602</v>
+        <v>7850.46670075374</v>
       </c>
       <c r="QL2" t="n">
-        <v>7638.20922774185</v>
+        <v>7834.462603266734</v>
       </c>
       <c r="QM2" t="n">
-        <v>7591.033822618531</v>
+        <v>7784.730408481752</v>
       </c>
       <c r="QN2" t="n">
-        <v>7517.477795642485</v>
+        <v>7709.274361696996</v>
       </c>
       <c r="QO2" t="n">
-        <v>7402.66607843847</v>
+        <v>7590.271618140355</v>
       </c>
       <c r="QP2" t="n">
-        <v>7303.816724182315</v>
+        <v>7489.113684902746</v>
       </c>
       <c r="QQ2" t="n">
-        <v>7208.306133058228</v>
+        <v>7389.77449895024</v>
       </c>
       <c r="QR2" t="n">
-        <v>7125.5377557033</v>
+        <v>7303.972679565458</v>
       </c>
       <c r="QS2" t="n">
-        <v>7010.884190437119</v>
+        <v>7183.882641436202</v>
       </c>
       <c r="QT2" t="n">
-        <v>6862.7419523344115</v>
+        <v>7031.202321339511</v>
       </c>
       <c r="QU2" t="n">
-        <v>6674.804732874011</v>
+        <v>6835.629877769196</v>
       </c>
       <c r="QV2" t="n">
-        <v>6493.925043639494</v>
+        <v>6648.432897240054</v>
       </c>
       <c r="QW2" t="n">
-        <v>6324.006162318806</v>
+        <v>6470.966653997137</v>
       </c>
       <c r="QX2" t="n">
-        <v>6163.686225002816</v>
+        <v>6305.010357341088</v>
       </c>
       <c r="QY2" t="n">
-        <v>5966.459775749313</v>
+        <v>6100.3639463375</v>
       </c>
       <c r="QZ2" t="n">
-        <v>5748.111256576092</v>
+        <v>5874.000199092621</v>
       </c>
       <c r="RA2" t="n">
-        <v>5510.426466447869</v>
+        <v>5626.762592608234</v>
       </c>
       <c r="RB2" t="n">
-        <v>5298.819173624855</v>
+        <v>5407.267471885708</v>
       </c>
       <c r="RC2" t="n">
-        <v>5112.674342793248</v>
+        <v>5213.278744248437</v>
       </c>
       <c r="RD2" t="n">
-        <v>4952.883775158066</v>
+        <v>5047.572854827293</v>
       </c>
       <c r="RE2" t="n">
-        <v>4781.108805122513</v>
+        <v>4868.988565246069</v>
       </c>
       <c r="RF2" t="n">
-        <v>4617.160159455089</v>
+        <v>4699.392577465125</v>
       </c>
       <c r="RG2" t="n">
-        <v>4448.664645574914</v>
+        <v>4524.430406571264</v>
       </c>
       <c r="RH2" t="n">
-        <v>4311.043904447606</v>
+        <v>4380.593415665172</v>
       </c>
       <c r="RI2" t="n">
-        <v>4184.039112147465</v>
+        <v>4248.527761354316</v>
       </c>
       <c r="RJ2" t="n">
-        <v>4083.245806988753</v>
+        <v>4144.465982813682</v>
       </c>
       <c r="RK2" t="n">
-        <v>3986.87196987065</v>
+        <v>4045.0103794624906</v>
       </c>
       <c r="RL2" t="n">
-        <v>3891.936876075904</v>
+        <v>3947.156064481875</v>
       </c>
       <c r="RM2" t="n">
-        <v>3795.6223459344887</v>
+        <v>3846.8196426991326</v>
       </c>
       <c r="RN2" t="n">
-        <v>3712.6299200009657</v>
+        <v>3761.2879995414837</v>
       </c>
       <c r="RO2" t="n">
-        <v>3658.6408022225974</v>
+        <v>3703.529593911387</v>
       </c>
       <c r="RP2" t="n">
-        <v>3606.7801459409234</v>
+        <v>3650.190656321896</v>
       </c>
       <c r="RQ2" t="n">
-        <v>3558.4010288463087</v>
+        <v>3599.612787980437</v>
       </c>
       <c r="RR2" t="n">
-        <v>3493.6443999670196</v>
+        <v>3533.977537224286</v>
       </c>
       <c r="RS2" t="n">
-        <v>3441.902357638722</v>
+        <v>3479.524946405876</v>
       </c>
       <c r="RT2" t="n">
-        <v>3391.555127539938</v>
+        <v>3427.6511107960505</v>
       </c>
       <c r="RU2" t="n">
-        <v>3366.672555987257</v>
+        <v>3401.0244748177997</v>
       </c>
       <c r="RV2" t="n">
-        <v>3341.286973410075</v>
+        <v>3375.0502155831186</v>
       </c>
       <c r="RW2" t="n">
-        <v>3319.1193434568922</v>
+        <v>3351.595404580336</v>
       </c>
       <c r="RX2" t="n">
-        <v>3280.2666840621337</v>
+        <v>3311.6027333003517</v>
       </c>
       <c r="RY2" t="n">
-        <v>3246.9185907259052</v>
+        <v>3276.76098277346</v>
       </c>
       <c r="RZ2" t="n">
-        <v>3216.006476543271</v>
+        <v>3244.289314759398</v>
       </c>
       <c r="SA2" t="n">
-        <v>3196.303380954681</v>
+        <v>3223.7866732628677</v>
       </c>
       <c r="SB2" t="n">
-        <v>3180.868191132938</v>
+        <v>3208.254835034672</v>
       </c>
       <c r="SC2" t="n">
-        <v>3167.062844892771</v>
+        <v>3194.243012653444</v>
       </c>
       <c r="SD2" t="n">
-        <v>3145.6486331989977</v>
+        <v>3172.349952036778</v>
       </c>
       <c r="SE2" t="n">
-        <v>3124.4474873103622</v>
+        <v>3150.123015106906</v>
       </c>
       <c r="SF2" t="n">
-        <v>3104.3182601114954</v>
+        <v>3129.468811336614</v>
       </c>
       <c r="SG2" t="n">
-        <v>3093.230052025518</v>
+        <v>3117.5085710378576</v>
       </c>
       <c r="SH2" t="n">
-        <v>3087.378430325629</v>
+        <v>3111.1517417587747</v>
       </c>
       <c r="SI2" t="n">
-        <v>3078.5021528146476</v>
+        <v>3101.699966918453</v>
       </c>
       <c r="SJ2" t="n">
-        <v>3068.9603192319446</v>
+        <v>3090.9192764893764</v>
       </c>
       <c r="SK2" t="n">
-        <v>3052.081992977459</v>
+        <v>3073.454470132086</v>
       </c>
       <c r="SL2" t="n">
-        <v>3035.9482987636125</v>
+        <v>3056.971523722185</v>
       </c>
       <c r="SM2" t="n">
-        <v>3024.6733835288046</v>
+        <v>3046.643323559692</v>
       </c>
       <c r="SN2" t="n">
-        <v>3021.4905757798783</v>
+        <v>3043.366063959003</v>
       </c>
       <c r="SO2" t="n">
-        <v>3017.4291461540925</v>
+        <v>3039.1003547468463</v>
       </c>
       <c r="SP2" t="n">
-        <v>3007.103142546294</v>
+        <v>3028.106598512635</v>
       </c>
       <c r="SQ2" t="n">
-        <v>2990.5938374800935</v>
+        <v>3011.6346348762013</v>
       </c>
       <c r="SR2" t="n">
-        <v>2975.2267408538096</v>
+        <v>2996.5245351489007</v>
       </c>
     </row>
   </sheetData>
